--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H2">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I2">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J2">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>0.9629980367535554</v>
+        <v>40.02102401586467</v>
       </c>
       <c r="R2">
-        <v>8.666982330781998</v>
+        <v>360.189216142782</v>
       </c>
       <c r="S2">
-        <v>0.002333428251737823</v>
+        <v>0.1064354713067656</v>
       </c>
       <c r="T2">
-        <v>0.002480924949008336</v>
+        <v>0.1106567724719686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H3">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I3">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J3">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>2.325352768728</v>
+        <v>129.506222406132</v>
       </c>
       <c r="R3">
-        <v>20.928174918552</v>
+        <v>1165.556001655188</v>
       </c>
       <c r="S3">
-        <v>0.005634532614520045</v>
+        <v>0.3444203679918672</v>
       </c>
       <c r="T3">
-        <v>0.005990693105285405</v>
+        <v>0.3580803075108394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H4">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I4">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J4">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>1.245915514443556</v>
+        <v>65.74594610286734</v>
       </c>
       <c r="R4">
-        <v>11.213239629992</v>
+        <v>591.713514925806</v>
       </c>
       <c r="S4">
-        <v>0.003018961980942296</v>
+        <v>0.1748506174453194</v>
       </c>
       <c r="T4">
-        <v>0.003209791470146692</v>
+        <v>0.1817853085412142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H5">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I5">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J5">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>1.236300639861333</v>
+        <v>42.290456788827</v>
       </c>
       <c r="R5">
-        <v>7.417803839167998</v>
+        <v>253.742740732962</v>
       </c>
       <c r="S5">
-        <v>0.002995664301060509</v>
+        <v>0.1124710026988038</v>
       </c>
       <c r="T5">
-        <v>0.002123347424637157</v>
+        <v>0.07795445135306495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H6">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I6">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J6">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>1.453222209399556</v>
+        <v>91.96897198585201</v>
       </c>
       <c r="R6">
-        <v>13.078999884596</v>
+        <v>827.7207478726681</v>
       </c>
       <c r="S6">
-        <v>0.003521284187553938</v>
+        <v>0.2445904651273424</v>
       </c>
       <c r="T6">
-        <v>0.003743865613585907</v>
+        <v>0.2542910846930113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H7">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I7">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J7">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>53.63239487860366</v>
+        <v>0.7017377016297778</v>
       </c>
       <c r="R7">
-        <v>482.6915539074329</v>
+        <v>6.315639314668</v>
       </c>
       <c r="S7">
-        <v>0.1299559714991606</v>
+        <v>0.001866263666244126</v>
       </c>
       <c r="T7">
-        <v>0.1381705273023792</v>
+        <v>0.001940280917186591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H8">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I8">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J8">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
-        <v>129.506222406132</v>
+        <v>2.270791442568</v>
       </c>
       <c r="R8">
-        <v>1165.556001655188</v>
+        <v>20.437122983112</v>
       </c>
       <c r="S8">
-        <v>0.3138048745738468</v>
+        <v>0.006039144758846903</v>
       </c>
       <c r="T8">
-        <v>0.3336405744941504</v>
+        <v>0.006278661232954249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H9">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I9">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J9">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>69.38896062683867</v>
+        <v>1.152804313338222</v>
       </c>
       <c r="R9">
-        <v>624.500645641548</v>
+        <v>10.375238820044</v>
       </c>
       <c r="S9">
-        <v>0.1681355048565118</v>
+        <v>0.003065870337700178</v>
       </c>
       <c r="T9">
-        <v>0.1787634003753804</v>
+        <v>0.003187464782390465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H10">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I10">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J10">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>68.85347796683199</v>
+        <v>0.741530449998</v>
       </c>
       <c r="R10">
-        <v>413.120867800992</v>
+        <v>4.449182699988</v>
       </c>
       <c r="S10">
-        <v>0.1668379836576238</v>
+        <v>0.00197209204098747</v>
       </c>
       <c r="T10">
-        <v>0.1182559083157816</v>
+        <v>0.001366871010162687</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H11">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I11">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J11">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>80.93452365035267</v>
+        <v>1.612604789848</v>
       </c>
       <c r="R11">
-        <v>728.4107128531741</v>
+        <v>14.513443108632</v>
       </c>
       <c r="S11">
-        <v>0.1961114112582625</v>
+        <v>0.004288704626123027</v>
       </c>
       <c r="T11">
-        <v>0.2085076721829816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.031915</v>
-      </c>
-      <c r="H12">
-        <v>0.06383</v>
-      </c>
-      <c r="I12">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J12">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.18802033333333</v>
-      </c>
-      <c r="N12">
-        <v>39.564061</v>
-      </c>
-      <c r="O12">
-        <v>0.1333092666742473</v>
-      </c>
-      <c r="P12">
-        <v>0.1413743409290003</v>
-      </c>
-      <c r="Q12">
-        <v>0.4208956689383333</v>
-      </c>
-      <c r="R12">
-        <v>2.52537401363</v>
-      </c>
-      <c r="S12">
-        <v>0.001019866923348814</v>
-      </c>
-      <c r="T12">
-        <v>0.0007228886776127401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.031915</v>
-      </c>
-      <c r="H13">
-        <v>0.06383</v>
-      </c>
-      <c r="I13">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J13">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>31.845132</v>
-      </c>
-      <c r="N13">
-        <v>95.53539599999999</v>
-      </c>
-      <c r="O13">
-        <v>0.3219020813407859</v>
-      </c>
-      <c r="P13">
-        <v>0.3413768279472386</v>
-      </c>
-      <c r="Q13">
-        <v>1.01633738778</v>
-      </c>
-      <c r="R13">
-        <v>6.098024326679999</v>
-      </c>
-      <c r="S13">
-        <v>0.002462674152419049</v>
-      </c>
-      <c r="T13">
-        <v>0.001745560347802756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.031915</v>
-      </c>
-      <c r="H14">
-        <v>0.06383</v>
-      </c>
-      <c r="I14">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J14">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>17.06250533333333</v>
-      </c>
-      <c r="N14">
-        <v>51.187516</v>
-      </c>
-      <c r="O14">
-        <v>0.1724739586473769</v>
-      </c>
-      <c r="P14">
-        <v>0.1829084566999494</v>
-      </c>
-      <c r="Q14">
-        <v>0.5445498577133333</v>
-      </c>
-      <c r="R14">
-        <v>3.26729914628</v>
-      </c>
-      <c r="S14">
-        <v>0.001319491809922854</v>
-      </c>
-      <c r="T14">
-        <v>0.0009352648544223249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.031915</v>
-      </c>
-      <c r="H15">
-        <v>0.06383</v>
-      </c>
-      <c r="I15">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J15">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>16.930832</v>
-      </c>
-      <c r="N15">
-        <v>33.861664</v>
-      </c>
-      <c r="O15">
-        <v>0.171142957097216</v>
-      </c>
-      <c r="P15">
-        <v>0.1209979539451033</v>
-      </c>
-      <c r="Q15">
-        <v>0.5403475032799999</v>
-      </c>
-      <c r="R15">
-        <v>2.16139001312</v>
-      </c>
-      <c r="S15">
-        <v>0.001309309138531733</v>
-      </c>
-      <c r="T15">
-        <v>0.0006186982046844718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.031915</v>
-      </c>
-      <c r="H16">
-        <v>0.06383</v>
-      </c>
-      <c r="I16">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J16">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.90151933333334</v>
-      </c>
-      <c r="N16">
-        <v>59.70455800000001</v>
-      </c>
-      <c r="O16">
-        <v>0.2011717362403739</v>
-      </c>
-      <c r="P16">
-        <v>0.2133424204787085</v>
-      </c>
-      <c r="Q16">
-        <v>0.6351569895233334</v>
-      </c>
-      <c r="R16">
-        <v>3.81094193714</v>
-      </c>
-      <c r="S16">
-        <v>0.001539040794557485</v>
-      </c>
-      <c r="T16">
-        <v>0.001090882682141076</v>
+        <v>0.004458797487207712</v>
       </c>
     </row>
   </sheetData>
